--- a/mcmaster_excel/Mil_Spec_Steel_Pan_Head_Phillips_Screws.xlsx
+++ b/mcmaster_excel/Mil_Spec_Steel_Pan_Head_Phillips_Screws.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L47"/>
+  <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,129 +434,97 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg.</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia.</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Head Ht.</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>DriveSize</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>TensileStrength, psi</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Specifications Met</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr"/>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1/8"</t>
+          <t>Lg.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Threading</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.167"</t>
+          <t>HeadDia.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.062"</t>
+          <t>Head Ht.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>No. 1</t>
+          <t>DriveSize</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>60,000</t>
+          <t>TensileStrength, psi</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>ASME B18.6.3, Fed. Spec. FF-S-92, Fed. Spec. QQ-P-416, MS35206-201, NASM35206</t>
+          <t>Specifications Met</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>96880A108</t>
-        </is>
-      </c>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>$16.05</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>2-56</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Cadmium-Plated Steel</t>
-        </is>
-      </c>
+          <t>Pkg.</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>1/8"</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -586,7 +554,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>ASME B18.6.3, Fed. Spec. FF-S-92, Fed. Spec. QQ-P-416, MS35206-202, NASM35206</t>
+          <t>ASME B18.6.3, Fed. Spec. FF-S-92, Fed. Spec. QQ-P-416, MS35206-201, NASM35206</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -596,12 +564,12 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>96880A112</t>
+          <t>96880A108</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>16.26</t>
+          <t>$16.05</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -618,7 +586,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -648,7 +616,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>ASME B18.6.3, Fed. Spec. FF-S-92, Fed. Spec. QQ-P-416, MS35206-203, NASM35206</t>
+          <t>ASME B18.6.3, Fed. Spec. FF-S-92, Fed. Spec. QQ-P-416, MS35206-202, NASM35206</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -658,12 +626,12 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>96880A115</t>
+          <t>96880A112</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>16.62</t>
+          <t>16.26</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -680,7 +648,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -710,7 +678,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>ASME B18.6.3, Fed. Spec. FF-S-92, Fed. Spec. QQ-P-416, MS35206-204, NASM35206</t>
+          <t>ASME B18.6.3, Fed. Spec. FF-S-92, Fed. Spec. QQ-P-416, MS35206-203, NASM35206</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -720,12 +688,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>96880A119</t>
+          <t>96880A115</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>16.87</t>
+          <t>16.62</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -742,7 +710,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -772,7 +740,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>ASME B18.6.3, Fed. Spec. FF-S-92, Fed. Spec. QQ-P-416, MS35206-205, NASM35206</t>
+          <t>ASME B18.6.3, Fed. Spec. FF-S-92, Fed. Spec. QQ-P-416, MS35206-204, NASM35206</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -782,12 +750,12 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>96880A123</t>
+          <t>96880A119</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>17.08</t>
+          <t>16.87</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -804,7 +772,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -834,7 +802,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>ASME B18.6.3, Fed. Spec. FF-S-92, Fed. Spec. QQ-P-416, MS35206-207, NASM35206</t>
+          <t>ASME B18.6.3, Fed. Spec. FF-S-92, Fed. Spec. QQ-P-416, MS35206-205, NASM35206</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -844,12 +812,12 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>96880A127</t>
+          <t>96880A123</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>15.80</t>
+          <t>17.08</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -866,7 +834,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -876,12 +844,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.219"</t>
+          <t>0.167"</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.080"</t>
+          <t>0.062"</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -896,27 +864,27 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, MS35206-212</t>
+          <t>ASME B18.6.3, Fed. Spec. FF-S-92, Fed. Spec. QQ-P-416, MS35206-207, NASM35206</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>96880A215</t>
+          <t>96880A127</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>6.88</t>
+          <t>15.80</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>4-40</t>
+          <t>2-56</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -928,7 +896,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -958,22 +926,22 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>ASME B18.6.3, Fed. Spec. FF-S-92, Fed. Spec. QQ-P-416, MS35206-213, NASM35206</t>
+          <t>Fed. Spec. FF-S-92, MS35206-212</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>96880A216</t>
+          <t>96880A215</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>17.78</t>
+          <t>6.88</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -990,7 +958,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1020,7 +988,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>ASME B18.6.3, Fed. Spec. FF-S-92, Fed. Spec. QQ-P-416, MS35206-214, NASM35206</t>
+          <t>ASME B18.6.3, Fed. Spec. FF-S-92, Fed. Spec. QQ-P-416, MS35206-213, NASM35206</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1030,12 +998,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>96880A220</t>
+          <t>96880A216</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>17.88</t>
+          <t>17.78</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1052,7 +1020,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1082,7 +1050,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>ASME B18.6.3, Fed. Spec. FF-S-92, Fed. Spec. QQ-P-416, MS35206-215, NASM35206</t>
+          <t>ASME B18.6.3, Fed. Spec. FF-S-92, Fed. Spec. QQ-P-416, MS35206-214, NASM35206</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1092,12 +1060,12 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>96880A224</t>
+          <t>96880A220</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>18.11</t>
+          <t>17.88</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1114,7 +1082,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>7/16"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1144,7 +1112,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>ASME B18.6.3, Fed. Spec. FF-S-92, Fed. Spec. QQ-P-416, MS35206-216, NASM35206</t>
+          <t>ASME B18.6.3, Fed. Spec. FF-S-92, Fed. Spec. QQ-P-416, MS35206-215, NASM35206</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1154,12 +1122,12 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>96880A228</t>
+          <t>96880A224</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>18.51</t>
+          <t>18.11</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1176,7 +1144,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>7/16"</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1206,7 +1174,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>ASME B18.6.3, Fed. Spec. FF-S-92, Fed. Spec. QQ-P-416, MS35206-217, NASM35206</t>
+          <t>ASME B18.6.3, Fed. Spec. FF-S-92, Fed. Spec. QQ-P-416, MS35206-216, NASM35206</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1216,12 +1184,12 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>96880A233</t>
+          <t>96880A228</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>18.72</t>
+          <t>18.51</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1238,7 +1206,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>9/16"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1268,7 +1236,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>ASME B18.6.3, Fed. Spec. FF-S-92, Fed. Spec. QQ-P-416, MS35206-323, NASM35206</t>
+          <t>ASME B18.6.3, Fed. Spec. FF-S-92, Fed. Spec. QQ-P-416, MS35206-217, NASM35206</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1278,12 +1246,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>96880A237</t>
+          <t>96880A233</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>19.01</t>
+          <t>18.72</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1300,7 +1268,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>9/16"</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1330,7 +1298,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>ASME B18.6.3, Fed. Spec. FF-S-92, Fed. Spec. QQ-P-416, MS35206-218, NASM35206</t>
+          <t>ASME B18.6.3, Fed. Spec. FF-S-92, Fed. Spec. QQ-P-416, MS35206-323, NASM35206</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1340,12 +1308,12 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>96880A242</t>
+          <t>96880A237</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>19.25</t>
+          <t>19.01</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1362,7 +1330,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1392,7 +1360,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>ASME B18.6.3, Fed. Spec. FF-S-92, Fed. Spec. QQ-P-416, MS35206-219, NASM35206</t>
+          <t>ASME B18.6.3, Fed. Spec. FF-S-92, Fed. Spec. QQ-P-416, MS35206-218, NASM35206</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1402,12 +1370,12 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>96880A246</t>
+          <t>96880A242</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>19.55</t>
+          <t>19.25</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1424,7 +1392,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1454,7 +1422,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>ASME B18.6.3, Fed. Spec. FF-S-92, Fed. Spec. QQ-P-416, MS35206-221, NASM35206</t>
+          <t>ASME B18.6.3, Fed. Spec. FF-S-92, Fed. Spec. QQ-P-416, MS35206-219, NASM35206</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1464,12 +1432,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>96880A250</t>
+          <t>96880A246</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>19.71</t>
+          <t>19.55</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1486,7 +1454,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1496,17 +1464,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.270"</t>
+          <t>0.219"</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.097"</t>
+          <t>0.080"</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>No. 2</t>
+          <t>No. 1</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1516,7 +1484,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>ASME B18.6.3, Fed. Spec. FF-S-92, Fed. Spec. QQ-P-416, MS35206-226, NASM35206</t>
+          <t>ASME B18.6.3, Fed. Spec. FF-S-92, Fed. Spec. QQ-P-416, MS35206-221, NASM35206</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1526,17 +1494,17 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>96880A311</t>
+          <t>96880A250</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>20.12</t>
+          <t>19.71</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>6-32</t>
+          <t>4-40</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1548,7 +1516,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1578,7 +1546,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>ASME B18.6.3, Fed. Spec. FF-S-92, Fed. Spec. QQ-P-416, MS35206-227, NASM35206</t>
+          <t>ASME B18.6.3, Fed. Spec. FF-S-92, Fed. Spec. QQ-P-416, MS35206-226, NASM35206</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1588,12 +1556,12 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>96880A315</t>
+          <t>96880A311</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>20.38</t>
+          <t>20.12</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1610,7 +1578,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1640,7 +1608,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>ASME B18.6.3, Fed. Spec. FF-S-92, Fed. Spec. QQ-P-416, MS35206-228, NASM35206</t>
+          <t>ASME B18.6.3, Fed. Spec. FF-S-92, Fed. Spec. QQ-P-416, MS35206-227, NASM35206</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1650,12 +1618,12 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>96880A320</t>
+          <t>96880A315</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>20.54</t>
+          <t>20.38</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1672,7 +1640,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>7/16"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1702,7 +1670,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>ASME B18.6.3, Fed. Spec. FF-S-92, Fed. Spec. QQ-P-416, MS35206-229, NASM35206</t>
+          <t>ASME B18.6.3, Fed. Spec. FF-S-92, Fed. Spec. QQ-P-416, MS35206-228, NASM35206</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1712,12 +1680,12 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>96880A326</t>
+          <t>96880A320</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20.75</t>
+          <t>20.54</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1734,7 +1702,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>7/16"</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1764,7 +1732,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>ASME B18.6.3, Fed. Spec. FF-S-92, Fed. Spec. QQ-P-416, MS35206-230, NASM35206</t>
+          <t>ASME B18.6.3, Fed. Spec. FF-S-92, Fed. Spec. QQ-P-416, MS35206-229, NASM35206</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1774,12 +1742,12 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>96880A329</t>
+          <t>96880A326</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>21.02</t>
+          <t>20.75</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1796,7 +1764,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1826,7 +1794,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>ASME B18.6.3, Fed. Spec. FF-S-92, Fed. Spec. QQ-P-416, MS35206-231, NASM35206</t>
+          <t>ASME B18.6.3, Fed. Spec. FF-S-92, Fed. Spec. QQ-P-416, MS35206-230, NASM35206</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1836,12 +1804,12 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>96880A332</t>
+          <t>96880A329</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>21.35</t>
+          <t>21.02</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1858,7 +1826,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1888,7 +1856,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>ASME B18.6.3, Fed. Spec. FF-S-92, Fed. Spec. QQ-P-416, MS35206-232, NASM35206</t>
+          <t>ASME B18.6.3, Fed. Spec. FF-S-92, Fed. Spec. QQ-P-416, MS35206-231, NASM35206</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1898,12 +1866,12 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>96880A336</t>
+          <t>96880A332</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>21.54</t>
+          <t>21.35</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1920,7 +1888,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1950,7 +1918,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>ASME B18.6.3, Fed. Spec. FF-S-92, Fed. Spec. QQ-P-416, MS35206-234, NASM35206</t>
+          <t>ASME B18.6.3, Fed. Spec. FF-S-92, Fed. Spec. QQ-P-416, MS35206-232, NASM35206</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1960,12 +1928,12 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>96880A339</t>
+          <t>96880A336</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>21.71</t>
+          <t>21.54</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1982,7 +1950,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1992,12 +1960,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0.322"</t>
+          <t>0.270"</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.115"</t>
+          <t>0.097"</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2012,27 +1980,27 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, MS35206-241</t>
+          <t>ASME B18.6.3, Fed. Spec. FF-S-92, Fed. Spec. QQ-P-416, MS35206-234, NASM35206</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>96880A409</t>
+          <t>96880A339</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>11.12</t>
+          <t>21.71</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>8-32</t>
+          <t>6-32</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2044,7 +2012,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2074,22 +2042,22 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>ASME B18.6.3, Fed. Spec. FF-S-92, Fed. Spec. QQ-P-416, MS35206-242, NASM35206</t>
+          <t>Fed. Spec. FF-S-92, MS35206-241</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>96880A410</t>
+          <t>96880A409</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>21.88</t>
+          <t>11.12</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2106,7 +2074,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2136,7 +2104,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>ASME B18.6.3, Fed. Spec. FF-S-92, Fed. Spec. QQ-P-416, MS35206-243, NASM35206</t>
+          <t>ASME B18.6.3, Fed. Spec. FF-S-92, Fed. Spec. QQ-P-416, MS35206-242, NASM35206</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -2146,12 +2114,12 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>96880A413</t>
+          <t>96880A410</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>22.29</t>
+          <t>21.88</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2168,7 +2136,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>7/16"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2198,7 +2166,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, MS35206-244</t>
+          <t>ASME B18.6.3, Fed. Spec. FF-S-92, Fed. Spec. QQ-P-416, MS35206-243, NASM35206</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -2208,12 +2176,12 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>96880A110</t>
+          <t>96880A413</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>15.63</t>
+          <t>22.29</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2230,7 +2198,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>7/16"</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2260,7 +2228,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>ASME B18.6.3, Fed. Spec. FF-S-92, Fed. Spec. QQ-P-416, MS35206-245, NASM35206</t>
+          <t>Fed. Spec. FF-S-92, MS35206-244</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -2270,12 +2238,12 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>96880A417</t>
+          <t>96880A110</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>22.43</t>
+          <t>15.63</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2292,7 +2260,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2322,7 +2290,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>ASME B18.6.3, Fed. Spec. FF-S-92, Fed. Spec. QQ-P-416, MS35206-246, NASM35206</t>
+          <t>ASME B18.6.3, Fed. Spec. FF-S-92, Fed. Spec. QQ-P-416, MS35206-245, NASM35206</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -2332,12 +2300,12 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>96880A421</t>
+          <t>96880A417</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>23.00</t>
+          <t>22.43</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2354,7 +2322,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2384,7 +2352,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, MS35206-247</t>
+          <t>ASME B18.6.3, Fed. Spec. FF-S-92, Fed. Spec. QQ-P-416, MS35206-246, NASM35206</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -2394,12 +2362,12 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>96880A422</t>
+          <t>96880A421</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>6.25</t>
+          <t>23.00</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2416,7 +2384,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2446,7 +2414,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>ASME B18.6.3, Fed. Spec. FF-S-92, Fed. Spec. QQ-P-416, MS35206-249, NASM35206</t>
+          <t>Fed. Spec. FF-S-92, MS35206-247</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2456,12 +2424,12 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>96880A426</t>
+          <t>96880A422</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>17.75</t>
+          <t>6.25</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2478,7 +2446,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2488,12 +2456,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0.373"</t>
+          <t>0.322"</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.133"</t>
+          <t>0.115"</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2508,7 +2476,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, MS35206-261</t>
+          <t>ASME B18.6.3, Fed. Spec. FF-S-92, Fed. Spec. QQ-P-416, MS35206-249, NASM35206</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -2518,17 +2486,17 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>96880A451</t>
+          <t>96880A426</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>6.25</t>
+          <t>17.75</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>10-24</t>
+          <t>8-32</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -2540,7 +2508,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2570,22 +2538,22 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, MS35206-263</t>
+          <t>Fed. Spec. FF-S-92, MS35206-261</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>96880A453</t>
+          <t>96880A451</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>27.50</t>
+          <t>6.25</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2602,7 +2570,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2632,22 +2600,22 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, MS35206-265</t>
+          <t>Fed. Spec. FF-S-92, MS35206-263</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>100</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>96880A455</t>
+          <t>96880A453</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>7.57</t>
+          <t>27.50</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2664,7 +2632,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2694,7 +2662,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, MS35206-267</t>
+          <t>Fed. Spec. FF-S-92, MS35206-265</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2704,12 +2672,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>96880A457</t>
+          <t>96880A455</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>8.75</t>
+          <t>7.57</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2726,7 +2694,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2756,7 +2724,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>ASME B18.6.3, Fed. Spec. FF-S-92, Fed. Spec. QQ-P-416, MS35207-261, NASM35207</t>
+          <t>Fed. Spec. FF-S-92, MS35206-267</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2766,17 +2734,17 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>96880A513</t>
+          <t>96880A457</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>20.94</t>
+          <t>8.75</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>10-32</t>
+          <t>10-24</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -2788,7 +2756,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2818,7 +2786,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>ASME B18.6.3, Fed. Spec. FF-S-92, Fed. Spec. QQ-P-416, MS35207-263, NASM35207</t>
+          <t>ASME B18.6.3, Fed. Spec. FF-S-92, Fed. Spec. QQ-P-416, MS35207-261, NASM35207</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2828,12 +2796,12 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>96880A518</t>
+          <t>96880A513</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>21.09</t>
+          <t>20.94</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2850,7 +2818,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2880,7 +2848,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>ASME B18.6.3, Fed. Spec. FF-S-92, Fed. Spec. QQ-P-416, MS35207-264, NASM35207</t>
+          <t>ASME B18.6.3, Fed. Spec. FF-S-92, Fed. Spec. QQ-P-416, MS35207-263, NASM35207</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2890,12 +2858,12 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>96880A522</t>
+          <t>96880A518</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>21.25</t>
+          <t>21.09</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -2912,7 +2880,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2942,7 +2910,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>ASME B18.6.3, Fed. Spec. FF-S-92, Fed. Spec. QQ-P-416, MS35207-265, NASM35207</t>
+          <t>ASME B18.6.3, Fed. Spec. FF-S-92, Fed. Spec. QQ-P-416, MS35207-264, NASM35207</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2952,12 +2920,12 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>96880A526</t>
+          <t>96880A522</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>21.40</t>
+          <t>21.25</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -2974,7 +2942,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3004,7 +2972,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>ASME B18.6.3, Fed. Spec. FF-S-92, Fed. Spec. QQ-P-416, MS35207-267, NASM35207</t>
+          <t>ASME B18.6.3, Fed. Spec. FF-S-92, Fed. Spec. QQ-P-416, MS35207-265, NASM35207</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -3014,12 +2982,12 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>96880A530</t>
+          <t>96880A526</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>21.56</t>
+          <t>21.40</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -3036,7 +3004,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3046,17 +3014,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>0.492"</t>
+          <t>0.373"</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0.175"</t>
+          <t>0.133"</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>No. 3</t>
+          <t>No. 2</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3066,7 +3034,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, MS35206-279</t>
+          <t>ASME B18.6.3, Fed. Spec. FF-S-92, Fed. Spec. QQ-P-416, MS35207-267, NASM35207</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -3076,17 +3044,17 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>96880A560</t>
+          <t>96880A530</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>21.26</t>
+          <t>21.56</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
+          <t>10-32</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -3098,7 +3066,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3128,7 +3096,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, MS35206-281</t>
+          <t>Fed. Spec. FF-S-92, MS35206-279</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -3138,12 +3106,12 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>96880A562</t>
+          <t>96880A560</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>15.00</t>
+          <t>21.26</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3160,7 +3128,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3190,7 +3158,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, MS35206-283</t>
+          <t>Fed. Spec. FF-S-92, MS35206-281</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -3200,12 +3168,12 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>96880A564</t>
+          <t>96880A562</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>11.38</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -3222,7 +3190,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3232,17 +3200,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>0.615"</t>
+          <t>0.492"</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.218"</t>
+          <t>0.175"</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>No. 4</t>
+          <t>No. 3</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3252,27 +3220,27 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Fed. Spec. FF-S-92, MS35206-296</t>
+          <t>Fed. Spec. FF-S-92, MS35206-283</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>96880A592</t>
+          <t>96880A564</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>11.38</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>5/16"-18</t>
+          <t>1/4"-20</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -3284,60 +3252,122 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
+          <t>3/4"</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>0.615"</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.218"</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>No. 4</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Fed. Spec. FF-S-92, MS35206-296</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>96880A592</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>5/16"-18</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>Cadmium-Plated Steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
           <t>1"</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
         <is>
           <t>0.615"</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>0.218"</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>No. 4</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>60,000</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
         <is>
           <t>Fed. Spec. FF-S-92, MS35206-298</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>96880A594</t>
         </is>
       </c>
-      <c r="J47" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>13.75</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
           <t>5/16"-18</t>
         </is>
       </c>
-      <c r="L47" t="inlineStr">
+      <c r="L48" t="inlineStr">
         <is>
           <t>Cadmium-Plated Steel</t>
         </is>
